--- a/Bewertungsbogen_Leistungsnachweis.xlsx
+++ b/Bewertungsbogen_Leistungsnachweis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa2fd555716d4621/Schule/Unterricht/Allgemein/Bewertungsbogen Leistungsnachweis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6F6B7F2D-BC60-4567-AA31-6A28497C8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCE078B-7850-4851-955B-F261BAC83BF3}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{6F6B7F2D-BC60-4567-AA31-6A28497C8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{597A392C-EB8C-4597-8BBC-90F8191B24C7}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{B4C12FD5-0A62-49D9-9921-146D038BE732}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B4C12FD5-0A62-49D9-9921-146D038BE732}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertungsbogen" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,13 +1004,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{461516CA-CB7B-4452-B1E3-1BCD15B95049}"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="102">
     <dxf>
       <fill>
         <patternFill>
@@ -1187,29 +1193,195 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0\ %"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF63BE7B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB84"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8696B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1219,103 +1391,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1323,11 +1398,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1340,15 +1417,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
@@ -1357,20 +1434,17 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1383,19 +1457,17 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1408,20 +1480,18 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -1433,20 +1503,17 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1462,15 +1529,14 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1486,16 +1552,15 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -1507,18 +1572,17 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1537,445 +1601,11 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -2013,6 +1643,537 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0\ %"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2197,11 +2358,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Blau" pivot="0" count="5" xr9:uid="{B391A455-2280-4199-ACC4-D9AC4928AD0E}">
-      <tableStyleElement type="wholeTable" dxfId="77"/>
-      <tableStyleElement type="headerRow" dxfId="76"/>
-      <tableStyleElement type="totalRow" dxfId="75"/>
-      <tableStyleElement type="firstRowStripe" dxfId="74"/>
-      <tableStyleElement type="secondRowStripe" dxfId="73"/>
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="firstRowStripe" dxfId="98"/>
+      <tableStyleElement type="secondRowStripe" dxfId="97"/>
     </tableStyle>
     <tableStyle name="Tabellenformat 1" pivot="0" count="0" xr9:uid="{DC2784C3-1D80-4ABF-8D8F-8D674D7F1CE2}"/>
   </tableStyles>
@@ -4515,54 +4676,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0520BB89-051C-4B8F-BEE0-A631F75F15C5}" name="Tabelle1" displayName="Tabelle1" ref="B2:AG34" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0520BB89-051C-4B8F-BEE0-A631F75F15C5}" name="Tabelle1" displayName="Tabelle1" ref="B2:AG34" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94">
   <autoFilter ref="B2:AG34" xr:uid="{391C16AA-6584-4889-9A2E-C8F354D7CBB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AG34">
     <sortCondition ref="B2:B34"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{5BD14F8D-97C5-4CC7-B715-63E05F56E77F}" name="Nr" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{9C5B411D-D0D3-4E75-9CFD-31FBB76FA265}" name="Pos" dataDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{BBACF6F3-D9C3-4D38-98DC-92FB9E64214C}" name="Nachname" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{7EC27307-A4C4-4481-A806-CA4B40E6CFD1}" name="Vorname" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{B854003D-4E59-4857-A628-6EAE45A0E4DB}" name="1" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{6BD3A389-F486-4E7E-8442-A33E7C6769E0}" name="2" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{7B4E14D1-40D8-4ACD-BBCC-CA0BF208BDCC}" name="3" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{56803361-AE46-440D-A2B1-13F7F80199F3}" name="4" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{9932885B-8E4F-459A-83DA-27BAC2DF6293}" name="5" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{99AD88F3-CD55-4733-B17C-34F5E7834CA2}" name="6" dataDxfId="60"/>
-    <tableColumn id="20" xr3:uid="{F5AB53B4-0569-494E-8311-371302783B19}" name="7" dataDxfId="59"/>
-    <tableColumn id="19" xr3:uid="{D0745C69-E157-479F-84FB-BF00A7F37E97}" name="8" dataDxfId="58"/>
-    <tableColumn id="18" xr3:uid="{029C508A-A21E-4FA3-B7AC-85D554B20CEF}" name="9" dataDxfId="57"/>
-    <tableColumn id="17" xr3:uid="{5B0167B2-489E-4648-A1F0-CA0E03BDA237}" name="10" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{12059AB8-66BE-4D88-A930-F4ADC2B71A38}" name="11" dataDxfId="55"/>
-    <tableColumn id="21" xr3:uid="{3748A28D-4D4C-4B37-9B16-7EC02411C248}" name="12" dataDxfId="54"/>
-    <tableColumn id="27" xr3:uid="{86D7989E-3CE7-444E-8270-0D4F2FFE6A7A}" name="13" dataDxfId="53"/>
-    <tableColumn id="26" xr3:uid="{A4C44071-5F7B-426E-A484-EC8ECDD9E63D}" name="14" dataDxfId="52"/>
-    <tableColumn id="36" xr3:uid="{839DA296-992E-4853-A2AE-2414BB8FD0A1}" name="15" dataDxfId="51"/>
-    <tableColumn id="35" xr3:uid="{CB5CEB47-85D8-4E70-B918-F8FFDDB59707}" name="16" dataDxfId="50"/>
-    <tableColumn id="34" xr3:uid="{B7962DA2-1E47-4F29-A206-D7A61085F6BB}" name="17" dataDxfId="49"/>
-    <tableColumn id="33" xr3:uid="{13A39DE9-026D-4858-8D15-845931D4EE22}" name="18" dataDxfId="48"/>
-    <tableColumn id="32" xr3:uid="{FB880900-9E47-41EF-A2EA-4CA94A3CE30A}" name="19" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{0DF33919-72E7-4F99-B71F-30E9BA2FE909}" name="20" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{59DABF90-D8C7-46B0-AF8E-F7B8DD1B2721}" name="∑" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{5BD14F8D-97C5-4CC7-B715-63E05F56E77F}" name="Nr" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{9C5B411D-D0D3-4E75-9CFD-31FBB76FA265}" name="Pos" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{BBACF6F3-D9C3-4D38-98DC-92FB9E64214C}" name="Nachname" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{7EC27307-A4C4-4481-A806-CA4B40E6CFD1}" name="Vorname" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{B854003D-4E59-4857-A628-6EAE45A0E4DB}" name="1" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{6BD3A389-F486-4E7E-8442-A33E7C6769E0}" name="2" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{7B4E14D1-40D8-4ACD-BBCC-CA0BF208BDCC}" name="3" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{56803361-AE46-440D-A2B1-13F7F80199F3}" name="4" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{9932885B-8E4F-459A-83DA-27BAC2DF6293}" name="5" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{99AD88F3-CD55-4733-B17C-34F5E7834CA2}" name="6" dataDxfId="53"/>
+    <tableColumn id="20" xr3:uid="{F5AB53B4-0569-494E-8311-371302783B19}" name="7" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{D0745C69-E157-479F-84FB-BF00A7F37E97}" name="8" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{029C508A-A21E-4FA3-B7AC-85D554B20CEF}" name="9" dataDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{5B0167B2-489E-4648-A1F0-CA0E03BDA237}" name="10" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{12059AB8-66BE-4D88-A930-F4ADC2B71A38}" name="11" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{3748A28D-4D4C-4B37-9B16-7EC02411C248}" name="12" dataDxfId="90"/>
+    <tableColumn id="27" xr3:uid="{86D7989E-3CE7-444E-8270-0D4F2FFE6A7A}" name="13" dataDxfId="89"/>
+    <tableColumn id="26" xr3:uid="{A4C44071-5F7B-426E-A484-EC8ECDD9E63D}" name="14" dataDxfId="88"/>
+    <tableColumn id="36" xr3:uid="{839DA296-992E-4853-A2AE-2414BB8FD0A1}" name="15" dataDxfId="87"/>
+    <tableColumn id="35" xr3:uid="{CB5CEB47-85D8-4E70-B918-F8FFDDB59707}" name="16" dataDxfId="86"/>
+    <tableColumn id="34" xr3:uid="{B7962DA2-1E47-4F29-A206-D7A61085F6BB}" name="17" dataDxfId="85"/>
+    <tableColumn id="33" xr3:uid="{13A39DE9-026D-4858-8D15-845931D4EE22}" name="18" dataDxfId="84"/>
+    <tableColumn id="32" xr3:uid="{FB880900-9E47-41EF-A2EA-4CA94A3CE30A}" name="19" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{0DF33919-72E7-4F99-B71F-30E9BA2FE909}" name="20" dataDxfId="82"/>
+    <tableColumn id="14" xr3:uid="{59DABF90-D8C7-46B0-AF8E-F7B8DD1B2721}" name="∑" dataDxfId="81">
       <calculatedColumnFormula>IF(COUNT(Tabelle1[[#This Row],[1]:[20]])&lt;&gt;0,SUM(F3:Y3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{45B77B6F-4339-4F5C-8DD5-D6B92ADB0BBE}" name="Note" dataDxfId="44">
+    <tableColumn id="12" xr3:uid="{45B77B6F-4339-4F5C-8DD5-D6B92ADB0BBE}" name="Note" dataDxfId="80">
       <calculatedColumnFormula>IF(COUNT(Tabelle1[[#This Row],[1]:[20]])&lt;&gt;0,LOOKUP($Z3,BE$7:BE$22,BB$7:BB$22),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{1725BBA7-F128-4E6E-AA17-BB5369E16D72}" name="Note +/-" dataDxfId="43">
+    <tableColumn id="15" xr3:uid="{1725BBA7-F128-4E6E-AA17-BB5369E16D72}" name="Note +/-" dataDxfId="79">
       <calculatedColumnFormula>IF(COUNT(Tabelle1[[#This Row],[1]:[20]])&lt;&gt;0,LOOKUP($Z3,BE$7:BE$22,BA$7:BA$22),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{7E8068B3-4555-4C8E-8031-FAA1FE0033D3}" name="Wörter" dataDxfId="42"/>
-    <tableColumn id="30" xr3:uid="{8330FAFE-1131-41A7-8FEF-DA96283FBA60}" name="Fehler" dataDxfId="41"/>
-    <tableColumn id="29" xr3:uid="{AC68284A-8BCD-4753-A7CE-75A29B0C8790}" name="%" dataDxfId="40">
+    <tableColumn id="31" xr3:uid="{7E8068B3-4555-4C8E-8031-FAA1FE0033D3}" name="Wörter" dataDxfId="78"/>
+    <tableColumn id="30" xr3:uid="{8330FAFE-1131-41A7-8FEF-DA96283FBA60}" name="Fehler" dataDxfId="77"/>
+    <tableColumn id="29" xr3:uid="{AC68284A-8BCD-4753-A7CE-75A29B0C8790}" name="%" dataDxfId="76">
       <calculatedColumnFormula>IF(OR(ISBLANK(Tabelle1[[#This Row],[Wörter]]),ISBLANK(Tabelle1[[#This Row],[Fehler]])),"",IFERROR(Tabelle1[[#This Row],[Fehler]]*100/Tabelle1[[#This Row],[Wörter]],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{8BE35C00-47B1-4D6E-B87A-230CF78F09FD}" name="Abzug" dataDxfId="39">
+    <tableColumn id="28" xr3:uid="{8BE35C00-47B1-4D6E-B87A-230CF78F09FD}" name="Abzug" dataDxfId="75">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[%]]="","",IF(Tabelle1[[#This Row],[%]]&lt;3,0,IF(Tabelle1[[#This Row],[%]]&gt;=6,2,1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{126383B9-C638-4C2D-A6CD-DEABFCC8D20B}" name="Punkte" dataDxfId="38">
+    <tableColumn id="16" xr3:uid="{126383B9-C638-4C2D-A6CD-DEABFCC8D20B}" name="Punkte" dataDxfId="74">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[Abzug]]="",IF(COUNT(Tabelle1[[#This Row],[1]:[20]])&lt;&gt;0,LOOKUP(Z3,BE$7:BE$22,BC$7:BC$22),""),IF(COUNT(Tabelle1[[#This Row],[1]:[20]])&lt;&gt;0,LOOKUP(Z3,BE$7:BE$22,BC$7:BC$22)-Tabelle1[[#This Row],[Abzug]],""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4571,28 +4732,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{678A28EA-6F6C-47CB-B13B-FBAFBF8111E2}" name="Tabelle2" displayName="Tabelle2" ref="B2:E15" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{678A28EA-6F6C-47CB-B13B-FBAFBF8111E2}" name="Tabelle2" displayName="Tabelle2" ref="B2:E15" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="B2:E15" xr:uid="{678A28EA-6F6C-47CB-B13B-FBAFBF8111E2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E9E7FC4F-DBCB-4A32-B058-E8C05EEBEE4D}" name="Aufgabe" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{D79FBEA7-E598-422C-B91F-66F0F4F8089B}" name="Mögliche BE" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{2ECE270A-9A0F-49F5-AF70-6E8D35A3E5B0}" name="Klassendurchschnitt" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{21328923-7C2D-4964-9C6A-6FF1766A4ABE}" name="Prozent" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{E9E7FC4F-DBCB-4A32-B058-E8C05EEBEE4D}" name="Aufgabe" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{D79FBEA7-E598-422C-B91F-66F0F4F8089B}" name="Mögliche BE" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{2ECE270A-9A0F-49F5-AF70-6E8D35A3E5B0}" name="Klassendurchschnitt" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{21328923-7C2D-4964-9C6A-6FF1766A4ABE}" name="Prozent" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76126011-6C1F-47BC-9EA6-C8CF2C96C885}" name="Tabelle14" displayName="Tabelle14" ref="B2:D5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76126011-6C1F-47BC-9EA6-C8CF2C96C885}" name="Tabelle14" displayName="Tabelle14" ref="B2:D5" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="B2:D5" xr:uid="{76126011-6C1F-47BC-9EA6-C8CF2C96C885}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D5">
     <sortCondition descending="1" ref="B2:B5"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FE34D12C-64AB-42B6-9A5D-4C34922B332A}" name="Datum" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B3AEE717-7C8E-4215-B498-2DCA44E0D16A}" name="Version" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{93B90D3D-3787-4125-AFE2-C60ED9ED2C7C}" name="Änderungen" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{FE34D12C-64AB-42B6-9A5D-4C34922B332A}" name="Datum" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{B3AEE717-7C8E-4215-B498-2DCA44E0D16A}" name="Version" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{93B90D3D-3787-4125-AFE2-C60ED9ED2C7C}" name="Änderungen" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Blau" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4900,7 +5061,7 @@
   </sheetPr>
   <dimension ref="B1:BF37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -5055,16 +5216,16 @@
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
@@ -5166,16 +5327,16 @@
       <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
@@ -5303,16 +5464,16 @@
       <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
       <c r="R5" s="52"/>
@@ -5366,16 +5527,16 @@
       <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
       <c r="R6" s="52"/>
@@ -5461,16 +5622,16 @@
       <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
@@ -5572,16 +5733,16 @@
       <c r="E8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
       <c r="R8" s="52"/>
@@ -5691,16 +5852,16 @@
       <c r="E9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
       <c r="R9" s="52"/>
@@ -5770,16 +5931,16 @@
       <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
       <c r="R10" s="52"/>
@@ -5848,16 +6009,16 @@
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
@@ -5926,16 +6087,16 @@
       <c r="E12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
@@ -6004,16 +6165,16 @@
       <c r="E13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
@@ -6082,16 +6243,16 @@
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="52"/>
@@ -6160,16 +6321,16 @@
       <c r="E15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
@@ -6238,16 +6399,16 @@
       <c r="E16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
@@ -6316,16 +6477,16 @@
       <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
@@ -6394,16 +6555,16 @@
       <c r="E18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
       <c r="P18" s="51"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
@@ -6472,16 +6633,16 @@
       <c r="E19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
@@ -6550,16 +6711,16 @@
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
@@ -6628,16 +6789,16 @@
       <c r="E21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
@@ -6706,16 +6867,16 @@
       <c r="E22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
       <c r="P22" s="51"/>
       <c r="Q22" s="52"/>
       <c r="R22" s="52"/>
@@ -6784,16 +6945,16 @@
       <c r="E23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
       <c r="P23" s="51"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
@@ -6842,16 +7003,16 @@
       <c r="E24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
@@ -6900,16 +7061,16 @@
       <c r="E25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
       <c r="P25" s="51"/>
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
@@ -6958,16 +7119,16 @@
       <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
       <c r="P26" s="51"/>
       <c r="Q26" s="52"/>
       <c r="R26" s="52"/>
@@ -7016,16 +7177,16 @@
       <c r="E27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
       <c r="P27" s="51"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
@@ -7074,16 +7235,16 @@
       <c r="E28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
       <c r="P28" s="51"/>
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
@@ -7132,16 +7293,16 @@
       <c r="E29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="52"/>
       <c r="R29" s="52"/>
@@ -7190,16 +7351,16 @@
       <c r="E30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
       <c r="P30" s="51"/>
       <c r="Q30" s="52"/>
       <c r="R30" s="52"/>
@@ -7248,16 +7409,16 @@
       <c r="E31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
       <c r="P31" s="51"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
@@ -7306,16 +7467,16 @@
       <c r="E32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="52"/>
       <c r="R32" s="52"/>
@@ -7364,16 +7525,16 @@
       <c r="E33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
       <c r="P33" s="51"/>
       <c r="Q33" s="52"/>
       <c r="R33" s="52"/>
@@ -7422,16 +7583,16 @@
       <c r="E34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
       <c r="P34" s="53"/>
       <c r="Q34" s="54"/>
       <c r="R34" s="54"/>
@@ -7713,42 +7874,42 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C3:C34">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>$D3="Nachname"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E34">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="45" priority="25">
       <formula>$E3="Vorname"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:Y34">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>F3&gt;F$36</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="43" priority="22">
       <formula>F3=F$36</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="42" priority="27">
       <formula>AND($D3="Nachname",$E3="Vorname")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="41" priority="28">
       <formula>AND(COUNT($F3:$Y3)&lt;&gt;0,F3="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="35">
+    <cfRule type="expression" dxfId="40" priority="35">
       <formula>NOT(ISNUMBER(F3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>F3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:Y36">
-    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7777,60 +7938,60 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AD34 AF3:AF34">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>AC3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>AND($D3="Nachname",$E3="Vorname")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>NOT(ISNUMBER(AC3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE34">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AE3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND($D3="Nachname",$E3="Vorname")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>NOT(ISNUMBER(AE3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF34">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>AF3=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>AF3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>AF3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2">
-    <cfRule type="expression" dxfId="4" priority="18">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>$AQ$8&gt;1/2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI6">
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>$AQ$8&gt;1/3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AO8">
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="27" priority="20">
       <formula>$AQ$8&gt;1/3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AY4">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>$AQ$8&gt;1/2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA4">
-    <cfRule type="expression" dxfId="0" priority="30">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>$BA$4&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8132,7 +8293,7 @@
   </sheetPr>
   <dimension ref="B1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
